--- a/scriptsInputOutput.xlsx
+++ b/scriptsInputOutput.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstudio\OneDrive - RMIT University\HIA-DoT\dot-hia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_6187ACCFB9FDDED9663D5FC75AE9D0E882F24CA1" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{24A06FC9-48D1-424C-A502-09C850DA3675}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,227 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbd_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/gbd/gbd_melbourne_ithimr.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/gbd_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where is uk_smoothed_res.rda?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/population_melbourne_abs.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/population_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where did population_melbourne_abs.csv amd disease_outcomes_lookup.csv come from? We should have code to generate them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/gbd/gbd_melbourne_mslt.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/disease_names.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/disease_outcomes_lookup.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\\Metahit\\mh-mslt\\data\\city regions\\Output disbayes\\uk_smoothed_res.rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death_rates_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Population and deaths/population_deaths.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/deaths_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disbayes_process.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires disbayes library?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">injuries_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_ACCIDENT.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/injuries_melbourne.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_ACCIDENT_EVENT.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/injuries_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_PERSON.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_VEHICLE.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Physical activity/NHS2017-18_CSV/NHS17SPB.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pa_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore for now, seems to be covered by synthetic_pop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pa_melbourne.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trips_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/VISTA 12-18/H_VISTA_1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/VISTA 12-18/P_VISTA1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/VISTA 12-18/T_VISTA1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scenarios.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne_scenarios.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne_scenarios.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synthetic_pop.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/matched_pop.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/matched_pop.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/ABS SEIFA/ses.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Physical activity/NHS2017-18_CSV/NHS17HHB.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archive.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trips_melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expects dataframes, not files, maybe just storage of old functions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_NHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persons_pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">functions_mslt.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection of functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ithm-r.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seems to expect a directory instead of files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mslt_code.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pif_expanded.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commented out code seems to make graphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/placeholder_England.csv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>gbd_prep.R</t>
+  </si>
+  <si>
+    <t>Data/gbd/gbd_melbourne_ithimr.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/gbd_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Where is uk_smoothed_res.rda?</t>
+  </si>
+  <si>
+    <t>Data/Processed/population_melbourne_abs.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/population_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Where did population_melbourne_abs.csv amd disease_outcomes_lookup.csv come from? We should have code to generate them.</t>
+  </si>
+  <si>
+    <t>Data/gbd/gbd_melbourne_mslt.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/disease_names.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/disease_outcomes_lookup.csv</t>
+  </si>
+  <si>
+    <t>C:\\Metahit\\mh-mslt\\data\\city regions\\Output disbayes\\uk_smoothed_res.rda</t>
+  </si>
+  <si>
+    <t>death_rates_prep.R</t>
+  </si>
+  <si>
+    <t>Data/Population and deaths/population_deaths.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/deaths_melbourne.csv</t>
+  </si>
+  <si>
+    <t>disbayes_process.R</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Requires disbayes library?</t>
+  </si>
+  <si>
+    <t>injuries_prep.R</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_ACCIDENT.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/injuries_melbourne.Rds</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_ACCIDENT_EVENT.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/injuries_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_PERSON.csv</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_VEHICLE.csv</t>
+  </si>
+  <si>
+    <t>pa_prep.R</t>
+  </si>
+  <si>
+    <t>Data/Physical activity/NHS2017-18_CSV/NHS17SPB.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/pa_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Ignore for now, seems to be covered by synthetic_pop</t>
+  </si>
+  <si>
+    <t>Data/Processed/pa_melbourne.Rds</t>
+  </si>
+  <si>
+    <t>trips_prep.R</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/VISTA 12-18/H_VISTA_1218_V1.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/VISTA 12-18/P_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne.Rds</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/VISTA 12-18/T_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t>scenarios.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne_scenarios.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne_scenarios.Rds</t>
+  </si>
+  <si>
+    <t>synthetic_pop.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/matched_pop.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/matched_pop.Rds</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/ABS SEIFA/ses.csv</t>
+  </si>
+  <si>
+    <t>Data/Physical activity/NHS2017-18_CSV/NHS17HHB.csv</t>
+  </si>
+  <si>
+    <t>archive.R</t>
+  </si>
+  <si>
+    <t>trips_melbourne</t>
+  </si>
+  <si>
+    <t>Expects dataframes, not files, maybe just storage of old functions?</t>
+  </si>
+  <si>
+    <t>pa_NHS</t>
+  </si>
+  <si>
+    <t>persons_pa</t>
+  </si>
+  <si>
+    <t>functions_mslt.R</t>
+  </si>
+  <si>
+    <t>Collection of functions</t>
+  </si>
+  <si>
+    <t>Ithm-r.R</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Seems to expect a directory instead of files</t>
+  </si>
+  <si>
+    <t>mslt_code.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/pif_expanded.csv</t>
+  </si>
+  <si>
+    <t>Commented out code seems to make graphs</t>
+  </si>
+  <si>
+    <t>Data/Processed/placeholder_England.csv</t>
+  </si>
+  <si>
+    <t>BZ: yes</t>
+  </si>
+  <si>
+    <t>BZ: I was using these as placeholder.</t>
+  </si>
+  <si>
+    <t>BZ: correct, not need for this</t>
+  </si>
+  <si>
+    <t>BZ: I separated gbd_prep into: ithimr_gbd_prep and mslt_gbd_prep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,163 +282,124 @@
         <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -498,31 +458,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.17"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -549,8 +817,11 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -560,8 +831,11 @@
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
@@ -570,21 +844,21 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
@@ -596,7 +870,7 @@
       </c>
       <c r="D10" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -609,8 +883,11 @@
       <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -622,7 +899,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -632,7 +909,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="9" t="s">
         <v>26</v>
@@ -640,7 +917,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
         <v>27</v>
@@ -648,7 +925,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -661,15 +938,18 @@
       <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>33</v>
       </c>
@@ -681,7 +961,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="9" t="s">
         <v>36</v>
@@ -691,7 +971,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="13" t="s">
         <v>38</v>
@@ -699,7 +979,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
@@ -711,14 +991,14 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>42</v>
       </c>
@@ -730,7 +1010,7 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="9" t="s">
         <v>36</v>
@@ -740,7 +1020,7 @@
       </c>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="9" t="s">
         <v>45</v>
@@ -748,7 +1028,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="20" t="s">
         <v>40</v>
@@ -756,7 +1036,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="9" t="s">
         <v>29</v>
@@ -764,7 +1044,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="13" t="s">
         <v>46</v>
@@ -772,7 +1052,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -784,26 +1064,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38"/>
       <c r="B38" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -817,13 +1097,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -837,10 +1117,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -854,14 +1134,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>60</v>
       </c>
@@ -869,10 +1149,9 @@
       <c r="D47" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/scriptsInputOutput.xlsx
+++ b/scriptsInputOutput.xlsx
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/scriptsInputOutput.xlsx
+++ b/scriptsInputOutput.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="functions" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -227,6 +228,285 @@
   </si>
   <si>
     <t xml:space="preserve">Data/Processed/pa_melbourne.Rds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runScenario.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/data_prep/trips_prep.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateVistaTrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_VISTA_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Travelsurvey/VISTA12-18/H_VISTA_1218_V1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person_VISTA_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Travelsurvey/VISTA12-18/P_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trip_VISTA_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Travelsurvey/VISTA12-18/T_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/scenarios.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateScenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trips_melbourne_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/data_prep/synthetic_pop.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateTravelData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/travel_data.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ses_index_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Travelsurvey/ABS SEIFA/ses.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculatePersonsTravelScenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel_data_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persons_travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/persons_travel.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculatePersonsPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/persons_pa.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculatePersonsMatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persons_matched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persons_travel_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runDataPrepMSLT.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/data_prep/death_rates_prep.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateDeathRates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death_rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/data_prep/ithim_gbd_prep.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateGBDandPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbd_melbourne_ithimr_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBDandPopulation[[1]] (gbd_melbourne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_melbourne_abs_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBDandPopulation[[2]] (population_melbourne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateDiseaseNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbd_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease_names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease_outcomes_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateGBDwider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbd_wider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/gbd_wider.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateMSLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mslt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/mslt/mslt_df.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths_melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dismod_output_cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/dismod_output_cancers.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dismod_output_non_cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/dismod_output_non_cancers.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/data_prep/trends_prep.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateDiseaseTrends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incidence_trends_cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/aihw/cancer_incidence_AIHW_with_projections.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trends_diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortality_trends_cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/aihw/trends/cancers_trends_mortality_aihw.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incidence_trends_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/mslt/incidence_trends_f.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trends_cvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/aihw/trends/cardiovascular_disease_trends_aihw.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incidence_trends_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/mslt/incidence_trends_m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grim_books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/aihw/trends/grim_books.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortality_trends_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/mslt/mortality_trends_f.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trends_diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/aihw/trends/diabetes_trends_aihw.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortality_trends_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Processed/mslt/mortality_trends_m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT YET REFERENCED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/data_prep/injuries_prep.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateInjuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accident_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">injuries_melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accident_event_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle_location</t>
   </si>
 </sst>
 </file>
@@ -236,7 +516,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -265,8 +545,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,25 +568,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEC9BA4"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFFA6A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
         <bgColor rgb="FFE8F2A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -306,7 +592,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -324,13 +610,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFAA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFA6A6"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,7 +718,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -457,23 +779,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,15 +799,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,11 +815,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,12 +835,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -537,7 +939,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -554,15 +956,15 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -571,10 +973,10 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDDE8CB"/>
-      <rgbColor rgb="FFE8F2A1"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFEC9BA4"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -604,13 +1006,13 @@
   </sheetPr>
   <dimension ref="A3:E59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.14"/>
@@ -675,40 +1077,40 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -732,7 +1134,7 @@
       <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -750,19 +1152,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -770,7 +1172,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -779,20 +1181,20 @@
       <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -800,16 +1202,16 @@
         <v>35</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="25"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="11"/>
@@ -817,7 +1219,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="25"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
@@ -833,35 +1235,35 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
@@ -869,7 +1271,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -884,18 +1286,18 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -940,18 +1342,18 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="25"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
@@ -971,46 +1373,46 @@
       <c r="D52" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -1025,7 +1427,7 @@
       <c r="D58" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1034,7 +1436,7 @@
       <c r="C59" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="25"/>
+      <c r="D59" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1045,4 +1447,603 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:G52"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="744" topLeftCell="A10" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="22"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="22"/>
+      <c r="C17" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="22"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="22"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="22"/>
+      <c r="C32" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/scriptsInputOutput.xlsx
+++ b/scriptsInputOutput.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -365,13 +365,16 @@
     <t xml:space="preserve">gbd_melbourne_ithimr_location</t>
   </si>
   <si>
-    <t xml:space="preserve">GBDandPopulation[[1]] (gbd_melbourne)</t>
+    <t xml:space="preserve">GBDandPopulation</t>
   </si>
   <si>
     <t xml:space="preserve">population_melbourne_abs_location</t>
   </si>
   <si>
-    <t xml:space="preserve">GBDandPopulation[[2]] (population_melbourne)</t>
+    <t xml:space="preserve">gbd_melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population_melbourne</t>
   </si>
   <si>
     <t xml:space="preserve">calculateDiseaseNames</t>
@@ -398,9 +401,6 @@
     <t xml:space="preserve">calculateMSLT</t>
   </si>
   <si>
-    <t xml:space="preserve">population_melbourne</t>
-  </si>
-  <si>
     <t xml:space="preserve">mslt</t>
   </si>
   <si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t xml:space="preserve">Data/Processed/mslt/mortality_trends_m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripts/mslt_code.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease_outcomes_lookup_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matched_pop_location</t>
   </si>
   <si>
     <t xml:space="preserve">NOT YET REFERENCED</t>
@@ -516,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -546,6 +555,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -558,7 +573,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,7 +595,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -655,6 +670,12 @@
         <bgColor rgb="FFFFA6A6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
@@ -718,7 +739,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -895,6 +916,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,11 +932,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,7 +964,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,14 +1033,14 @@
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1454,22 +1507,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G52"/>
+  <dimension ref="B1:G56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="744" topLeftCell="A10" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="732" topLeftCell="A4" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1701,7 +1754,7 @@
       <c r="F19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1711,14 +1764,14 @@
       <c r="D20" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="45" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="46" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1738,7 +1791,7 @@
       <c r="F24" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1755,117 +1808,115 @@
       <c r="E26" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="47" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="33" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="48" t="s">
+      <c r="C30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="D30" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="33" t="s">
+      <c r="F30" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="22"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>123</v>
-      </c>
+      <c r="E31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="53" t="s">
         <v>124</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>6</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -1874,168 +1925,206 @@
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E37" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="33" t="s">
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C39" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D39" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E39" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F39" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>141</v>
-      </c>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G42" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E43" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F43" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G43" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="45" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="33" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="E45" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="E46" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E49" s="33" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="33" t="s">
+      <c r="F53" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="22" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="22" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="35" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scriptsInputOutput.xlsx
+++ b/scriptsInputOutput.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstudio\OneDrive - RMIT University\HIA-DoT\dot-hia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_3AB1C45E50B3DC8AB8D2B9A009FC304A0164373D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="functions" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="disease_outcomes_lookup" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="functions" sheetId="2" r:id="rId2"/>
+    <sheet name="disease_outcomes_lookup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,732 +29,731 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="239">
   <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death_rates_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Population and deaths/population_deaths.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/deaths_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ithm_gdb_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/gbd/gbd_melbourne_ithimr.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/gbd_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/population_melbourne_abs.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/population_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should have code to generate population_melbourne_abs.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mslt_gdb_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/gbd/gbd_melbourne_mslt.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostly finished, need Belen to double check code produces what’s needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/disease_outcomes_lookup.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/disease_names.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should have code to generate disease_outcomes_lookup.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mslt_df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disbayes_process.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires disbayes library?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ: yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">injuries_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_ACCIDENT.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/injuries_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_ACCIDENT_EVENT.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_PERSON.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/VicRoads Road Injuries/Original_VEHICLE.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trips_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/VISTA 12-18/H_VISTA_1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/VISTA 12-18/P_VISTA1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/VISTA 12-18/T_VISTA1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scenarios.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/trips_melbourne_scenarios.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synthetic_pop.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/matched_pop.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travel survey/ABS SEIFA/ses.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Physical activity/NHS2017-18_CSV/NHS17SPB.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Physical activity/NHS2017-18_CSV/NHS17HHB.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archive.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trips_melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expects dataframes, not files, maybe just storage of old functions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_NHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persons_pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">functions_mslt.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection of functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ithm-r.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seems to expect a directory instead of files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mslt_code.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pif_expanded.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commented out code seems to make graphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/placeholder_England.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLDER/IGNORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbd_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where is uk_smoothed_res.rda?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ: I was using these as placeholder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where did population_melbourne_abs.csv amd disease_outcomes_lookup.csv come from? We should have code to generate them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ: I separated gbd_prep into: ithimr_gbd_prep and mslt_gbd_prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\\Metahit\\mh-mslt\\data\\city regions\\Output disbayes\\uk_smoothed_res.rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pa_melbourne.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore for now, seems to be covered by synthetic_pop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ: correct, not need for this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pa_melbourne.Rds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runScenario.R (rename to data_prep.R ?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/synthetic_pop.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateTravelData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_VISTA_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travelsurvey/VISTA12-18/H_VISTA_1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/travel_data.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_VISTA_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travelsurvey/VISTA12-18/P_VISTA1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ses_index_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travelsurvey/ABS SEIFA/ses.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/trips_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateVistaTrips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trip_VISTA_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Travelsurvey/VISTA12-18/T_VISTA1218_V1.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/scenarios.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateScenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trips_melbourne_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Run scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) Matched population with mets baseline and scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculatePersonsTravelScenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel_data_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persons_travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/persons_travel.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1) Create data set with VISTA people and allocate baseline and scenario trips to them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scenario_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculatePersonsPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/persons_pa.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2) Create PA dataset from NHS data to then match to VISTA people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculatePersonsMatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persons_matched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3) Match NHS people to VISTA people based on age, sex, ses, work status and whether they walk for transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persons_travel_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/mmet_pp.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateMMETSperPerson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matched_pop_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmets_pp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/mets_test.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) mmets per person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/ithim-r_wrappers.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gen_pa_rr_wrapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RR_PA_calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/RR_PA_calculations.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) RRs per person (code below, has uncertainty inputs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disease_inventory_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dose_response_folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…/ithimr/extdata/global/dose_response/drpa/extdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA_DOSE_RESPONSE_QUANTILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_burden_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_ap_pa_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pifs_pa_ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/pifs_pa_ap.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) PIFS by age and sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demographic_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/DEMO.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combined_AP_PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate_AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runScenario.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runDataPrepMSLT.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/death_rates_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateDeathRates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death_rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/deaths_rate_males.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/deaths_rate_fmales.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/ithim_gbd_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateGBDandPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbd_melbourne_ithimr_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBDandPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_melbourne_abs_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbd_melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population_melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateDiseaseNames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbd_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disease_names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disease_outcomes_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateGBDwider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbd_wider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/gbd_wider.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateMSLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mslt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/mslt/mslt_df.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deaths_melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dismod_output_cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/dismod_output_cancers.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dismod_output_non_cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/dismod_output_non_cancers.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/trends_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateDiseaseTrends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incidence_trends_cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/aihw/cancer_incidence_AIHW_with_projections.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trends_diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mortality_trends_cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/aihw/trends/cancers_trends_mortality_aihw.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incidence_trends_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/mslt/incidence_trends_f.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trends_cvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/aihw/trends/cardiovascular_disease_trends_aihw.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incidence_trends_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/mslt/incidence_trends_m.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grim_books</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/aihw/trends/grim_books_utf8.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mortality_trends_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/mslt/mortality_trends_f.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trends_diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/aihw/trends/diabetes_trends_aihw.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mortality_trends_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Processed/mslt/mortality_trends_m.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/mslt_code.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disease_outcomes_lookup_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT YET REFERENCED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripts/data_prep/injuries_prep.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateInjuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accident_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">injuries_melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accident_event_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vehicle_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBD_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acronym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air_pollution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physical_activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nitrogen_dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap_acronym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pa_acronym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All causes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all_cause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ischemic heart disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ihd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvd_ihd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coronary_heart_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neoplasms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracheal, bronchus, and lung cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neo_lung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lung_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic obstructive pulmonary disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resp_copd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvd_stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes mellitus type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower respiratory infections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lri</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>death_rates_prep.R</t>
+  </si>
+  <si>
+    <t>Data/Population and deaths/population_deaths.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/deaths_melbourne.csv</t>
+  </si>
+  <si>
+    <t>ithm_gdb_prep.R</t>
+  </si>
+  <si>
+    <t>Data/gbd/gbd_melbourne_ithimr.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/gbd_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/population_melbourne_abs.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/population_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Should have code to generate population_melbourne_abs.csv</t>
+  </si>
+  <si>
+    <t>mslt_gdb_prep.R</t>
+  </si>
+  <si>
+    <t>Data/gbd/gbd_melbourne_mslt.csv</t>
+  </si>
+  <si>
+    <t>Mostly finished, need Belen to double check code produces what’s needed</t>
+  </si>
+  <si>
+    <t>Data/Processed/disease_outcomes_lookup.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/disease_names.csv</t>
+  </si>
+  <si>
+    <t>Should have code to generate disease_outcomes_lookup.csv</t>
+  </si>
+  <si>
+    <t>mslt_df</t>
+  </si>
+  <si>
+    <t>disbayes_process.R</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Requires disbayes library?</t>
+  </si>
+  <si>
+    <t>BZ: yes</t>
+  </si>
+  <si>
+    <t>injuries_prep.R</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_ACCIDENT.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/injuries_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_ACCIDENT_EVENT.csv</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_PERSON.csv</t>
+  </si>
+  <si>
+    <t>Data/VicRoads Road Injuries/Original_VEHICLE.csv</t>
+  </si>
+  <si>
+    <t>trips_prep.R</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/VISTA 12-18/H_VISTA_1218_V1.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/VISTA 12-18/P_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne.Rds</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/VISTA 12-18/T_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t>scenarios.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/trips_melbourne_scenarios.csv</t>
+  </si>
+  <si>
+    <t>synthetic_pop.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/matched_pop.csv</t>
+  </si>
+  <si>
+    <t>Data/Travel survey/ABS SEIFA/ses.csv</t>
+  </si>
+  <si>
+    <t>Data/Physical activity/NHS2017-18_CSV/NHS17SPB.csv</t>
+  </si>
+  <si>
+    <t>Data/Physical activity/NHS2017-18_CSV/NHS17HHB.csv</t>
+  </si>
+  <si>
+    <t>archive.R</t>
+  </si>
+  <si>
+    <t>trips_melbourne</t>
+  </si>
+  <si>
+    <t>Expects dataframes, not files, maybe just storage of old functions?</t>
+  </si>
+  <si>
+    <t>pa_NHS</t>
+  </si>
+  <si>
+    <t>persons_pa</t>
+  </si>
+  <si>
+    <t>functions_mslt.R</t>
+  </si>
+  <si>
+    <t>Collection of functions</t>
+  </si>
+  <si>
+    <t>Ithm-r.R</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Seems to expect a directory instead of files</t>
+  </si>
+  <si>
+    <t>mslt_code.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/pif_expanded.csv</t>
+  </si>
+  <si>
+    <t>Commented out code seems to make graphs</t>
+  </si>
+  <si>
+    <t>Data/Processed/placeholder_England.csv</t>
+  </si>
+  <si>
+    <t>OLDER/IGNORE</t>
+  </si>
+  <si>
+    <t>gbd_prep.R</t>
+  </si>
+  <si>
+    <t>Where is uk_smoothed_res.rda?</t>
+  </si>
+  <si>
+    <t>BZ: I was using these as placeholder.</t>
+  </si>
+  <si>
+    <t>Where did population_melbourne_abs.csv amd disease_outcomes_lookup.csv come from? We should have code to generate them.</t>
+  </si>
+  <si>
+    <t>BZ: I separated gbd_prep into: ithimr_gbd_prep and mslt_gbd_prep</t>
+  </si>
+  <si>
+    <t>C:\\Metahit\\mh-mslt\\data\\city regions\\Output disbayes\\uk_smoothed_res.rda</t>
+  </si>
+  <si>
+    <t>pa_prep.R</t>
+  </si>
+  <si>
+    <t>Data/Processed/pa_melbourne.csv</t>
+  </si>
+  <si>
+    <t>Ignore for now, seems to be covered by synthetic_pop</t>
+  </si>
+  <si>
+    <t>BZ: correct, not need for this</t>
+  </si>
+  <si>
+    <t>Data/Processed/pa_melbourne.Rds</t>
+  </si>
+  <si>
+    <t>R file</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Input variable</t>
+  </si>
+  <si>
+    <t>Input file</t>
+  </si>
+  <si>
+    <t>Output variable</t>
+  </si>
+  <si>
+    <t>Output file</t>
+  </si>
+  <si>
+    <t>runScenario.R (rename to data_prep.R ?)</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/synthetic_pop.R</t>
+  </si>
+  <si>
+    <t>calculateTravelData</t>
+  </si>
+  <si>
+    <t>hh_VISTA_location</t>
+  </si>
+  <si>
+    <t>Data/Travelsurvey/VISTA12-18/H_VISTA_1218_V1.csv</t>
+  </si>
+  <si>
+    <t>travel_data</t>
+  </si>
+  <si>
+    <t>Data/Processed/travel_data.csv</t>
+  </si>
+  <si>
+    <t>person_VISTA_location</t>
+  </si>
+  <si>
+    <t>Data/Travelsurvey/VISTA12-18/P_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t>ses_index_location</t>
+  </si>
+  <si>
+    <t>Data/Travelsurvey/ABS SEIFA/ses.csv</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/trips_prep.R</t>
+  </si>
+  <si>
+    <t>calculateVistaTrips</t>
+  </si>
+  <si>
+    <t>trip_VISTA_location</t>
+  </si>
+  <si>
+    <t>Data/Travelsurvey/VISTA12-18/T_VISTA1218_V1.csv</t>
+  </si>
+  <si>
+    <t>Scripts/scenarios.R</t>
+  </si>
+  <si>
+    <t>calculateScenario</t>
+  </si>
+  <si>
+    <t>trips_melbourne_location</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>1) Run scenarios</t>
+  </si>
+  <si>
+    <t>2) Matched population with mets baseline and scenario</t>
+  </si>
+  <si>
+    <t>calculatePersonsTravelScenario</t>
+  </si>
+  <si>
+    <t>travel_data_location</t>
+  </si>
+  <si>
+    <t>persons_travel</t>
+  </si>
+  <si>
+    <t>Data/Processed/persons_travel.csv</t>
+  </si>
+  <si>
+    <t>2.1) Create data set with VISTA people and allocate baseline and scenario trips to them</t>
+  </si>
+  <si>
+    <t>scenario_location</t>
+  </si>
+  <si>
+    <t>calculatePersonsPA</t>
+  </si>
+  <si>
+    <t>pa_location</t>
+  </si>
+  <si>
+    <t>Data/Processed/persons_pa.csv</t>
+  </si>
+  <si>
+    <t>2.2) Create PA dataset from NHS data to then match to VISTA people</t>
+  </si>
+  <si>
+    <t>hh_location</t>
+  </si>
+  <si>
+    <t>calculatePersonsMatch</t>
+  </si>
+  <si>
+    <t>persons_matched</t>
+  </si>
+  <si>
+    <t>2.3) Match NHS people to VISTA people based on age, sex, ses, work status and whether they walk for transport</t>
+  </si>
+  <si>
+    <t>persons_travel_location</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/mmet_pp.R</t>
+  </si>
+  <si>
+    <t>calculateMMETSperPerson</t>
+  </si>
+  <si>
+    <t>matched_pop_location</t>
+  </si>
+  <si>
+    <t>mmets_pp</t>
+  </si>
+  <si>
+    <t>Data/Processed/mets_test.csv</t>
+  </si>
+  <si>
+    <t>3) mmets per person</t>
+  </si>
+  <si>
+    <t>Scripts/ithim-r_wrappers.R</t>
+  </si>
+  <si>
+    <t>gen_pa_rr_wrapper</t>
+  </si>
+  <si>
+    <t>RR_PA_calculations</t>
+  </si>
+  <si>
+    <t>Data/Processed/RR_PA_calculations.csv</t>
+  </si>
+  <si>
+    <t>4) RRs per person (code below, has uncertainty inputs)</t>
+  </si>
+  <si>
+    <t>disease_inventory_location</t>
+  </si>
+  <si>
+    <t>dose_response_folder</t>
+  </si>
+  <si>
+    <t>…/ithimr/extdata/global/dose_response/drpa/extdata</t>
+  </si>
+  <si>
+    <t>PA_DOSE_RESPONSE_QUANTILE</t>
+  </si>
+  <si>
+    <t>health_burden_2</t>
+  </si>
+  <si>
+    <t>ind_ap_pa_location</t>
+  </si>
+  <si>
+    <t>pifs_pa_ap</t>
+  </si>
+  <si>
+    <t>Data/Processed/pifs_pa_ap.csv</t>
+  </si>
+  <si>
+    <t>5) PIFS by age and sex</t>
+  </si>
+  <si>
+    <t>demographic_location</t>
+  </si>
+  <si>
+    <t>Data/DEMO.csv</t>
+  </si>
+  <si>
+    <t>combined_AP_PA</t>
+  </si>
+  <si>
+    <t>calculate_AP</t>
+  </si>
+  <si>
+    <t>runScenario.R</t>
+  </si>
+  <si>
+    <t>runDataPrepMSLT.R</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/death_rates_prep.R</t>
+  </si>
+  <si>
+    <t>calculateDeathRates</t>
+  </si>
+  <si>
+    <t>population_deaths</t>
+  </si>
+  <si>
+    <t>death_rates</t>
+  </si>
+  <si>
+    <t>Data/Processed/deaths_rate_males.csv</t>
+  </si>
+  <si>
+    <t>Data/Processed/deaths_rate_fmales.csv</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/ithim_gbd_prep.R</t>
+  </si>
+  <si>
+    <t>calculateGBDandPopulation</t>
+  </si>
+  <si>
+    <t>gbd_melbourne_ithimr_location</t>
+  </si>
+  <si>
+    <t>GBDandPopulation</t>
+  </si>
+  <si>
+    <t>population_melbourne_abs_location</t>
+  </si>
+  <si>
+    <t>gbd_melbourne</t>
+  </si>
+  <si>
+    <t>population_melbourne</t>
+  </si>
+  <si>
+    <t>calculateDiseaseNames</t>
+  </si>
+  <si>
+    <t>gbd_location</t>
+  </si>
+  <si>
+    <t>disease_names</t>
+  </si>
+  <si>
+    <t>disease_outcomes_location</t>
+  </si>
+  <si>
+    <t>calculateGBDwider</t>
+  </si>
+  <si>
+    <t>gbd_wider</t>
+  </si>
+  <si>
+    <t>Data/Processed/gbd_wider.csv</t>
+  </si>
+  <si>
+    <t>calculateMSLT</t>
+  </si>
+  <si>
+    <t>mslt</t>
+  </si>
+  <si>
+    <t>Data/Processed/mslt/mslt_df.csv</t>
+  </si>
+  <si>
+    <t>deaths_melbourne</t>
+  </si>
+  <si>
+    <t>dismod_output_cancers</t>
+  </si>
+  <si>
+    <t>Data/Processed/dismod_output_cancers.csv</t>
+  </si>
+  <si>
+    <t>dismod_output_non_cancers</t>
+  </si>
+  <si>
+    <t>Data/Processed/dismod_output_non_cancers.csv</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/trends_prep.R</t>
+  </si>
+  <si>
+    <t>calculateDiseaseTrends</t>
+  </si>
+  <si>
+    <t>incidence_trends_cancers</t>
+  </si>
+  <si>
+    <t>Data/aihw/cancer_incidence_AIHW_with_projections.xlsx</t>
+  </si>
+  <si>
+    <t>trends_diseases</t>
+  </si>
+  <si>
+    <t>mortality_trends_cancers</t>
+  </si>
+  <si>
+    <t>Data/aihw/trends/cancers_trends_mortality_aihw.xls</t>
+  </si>
+  <si>
+    <t>incidence_trends_f</t>
+  </si>
+  <si>
+    <t>Data/Processed/mslt/incidence_trends_f.csv</t>
+  </si>
+  <si>
+    <t>trends_cvd</t>
+  </si>
+  <si>
+    <t>Data/aihw/trends/cardiovascular_disease_trends_aihw.xlsx</t>
+  </si>
+  <si>
+    <t>incidence_trends_m</t>
+  </si>
+  <si>
+    <t>Data/Processed/mslt/incidence_trends_m.csv</t>
+  </si>
+  <si>
+    <t>grim_books</t>
+  </si>
+  <si>
+    <t>Data/aihw/trends/grim_books_utf8.csv</t>
+  </si>
+  <si>
+    <t>mortality_trends_f</t>
+  </si>
+  <si>
+    <t>Data/Processed/mslt/mortality_trends_f.csv</t>
+  </si>
+  <si>
+    <t>trends_diabetes</t>
+  </si>
+  <si>
+    <t>Data/aihw/trends/diabetes_trends_aihw.xls</t>
+  </si>
+  <si>
+    <t>mortality_trends_m</t>
+  </si>
+  <si>
+    <t>Data/Processed/mslt/mortality_trends_m.csv</t>
+  </si>
+  <si>
+    <t>Scripts/mslt_code.R</t>
+  </si>
+  <si>
+    <t>disease_outcomes_lookup_location</t>
+  </si>
+  <si>
+    <t>NOT YET REFERENCED</t>
+  </si>
+  <si>
+    <t>Scripts/data_prep/injuries_prep.R</t>
+  </si>
+  <si>
+    <t>calculateInjuries</t>
+  </si>
+  <si>
+    <t>accident_location</t>
+  </si>
+  <si>
+    <t>injuries_melbourne</t>
+  </si>
+  <si>
+    <t>accident_event_location</t>
+  </si>
+  <si>
+    <t>person_location</t>
+  </si>
+  <si>
+    <t>vehicle_location</t>
+  </si>
+  <si>
+    <t>GBD_name</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>air_pollution</t>
+  </si>
+  <si>
+    <t>physical_activity</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>nitrogen_dioxide</t>
+  </si>
+  <si>
+    <t>ap_acronym</t>
+  </si>
+  <si>
+    <t>pa_acronym</t>
+  </si>
+  <si>
+    <t>All causes</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>all_cause</t>
+  </si>
+  <si>
+    <t>Ischemic heart disease</t>
+  </si>
+  <si>
+    <t>ihd</t>
+  </si>
+  <si>
+    <t>cvd_ihd</t>
+  </si>
+  <si>
+    <t>coronary_heart_disease</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>neo</t>
+  </si>
+  <si>
+    <t>total_cancer</t>
+  </si>
+  <si>
+    <t>Tracheal, bronchus, and lung cancer</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>neo_lung</t>
+  </si>
+  <si>
+    <t>lung_cancer</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>copd</t>
+  </si>
+  <si>
+    <t>resp_copd</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>cvd_stroke</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus type 2</t>
+  </si>
+  <si>
+    <t>t2d</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>Lower respiratory infections</t>
+  </si>
+  <si>
+    <t>lri</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Breast cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breast_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colon and rectum cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterine cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endometrial_cancer</t>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>breast_cancer</t>
+  </si>
+  <si>
+    <t>Colon and rectum cancer</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>colon_cancer</t>
+  </si>
+  <si>
+    <t>Uterine cancer</t>
+  </si>
+  <si>
+    <t>endo</t>
+  </si>
+  <si>
+    <t>endometrial_cancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -757,22 +761,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -784,7 +773,7 @@
       <family val="2"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -908,409 +897,338 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1369,33 +1287,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:AMJ59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="46.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="11.57"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" style="2" customWidth="1"/>
+    <col min="6" max="1024" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1421,10 +1645,10 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1660,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>10</v>
@@ -1448,10 +1672,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1463,7 +1687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
         <v>16</v>
@@ -1475,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -1483,7 +1707,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="20" t="s">
         <v>6</v>
@@ -1493,10 +1717,10 @@
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" s="2" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1513,7 +1737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1749,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="17" t="s">
         <v>27</v>
@@ -1533,7 +1757,7 @@
       <c r="C17" s="22"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
         <v>28</v>
@@ -1541,7 +1765,7 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="13" t="s">
         <v>29</v>
@@ -1549,7 +1773,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1561,7 +1785,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
         <v>33</v>
@@ -1571,7 +1795,7 @@
       </c>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="13" t="s">
         <v>35</v>
@@ -1579,7 +1803,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -1591,12 +1815,12 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1608,7 +1832,7 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="17" t="s">
         <v>33</v>
@@ -1616,7 +1840,7 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="17" t="s">
         <v>40</v>
@@ -1624,7 +1848,7 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="26" t="s">
         <v>37</v>
@@ -1632,7 +1856,7 @@
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -1640,7 +1864,7 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="13" t="s">
         <v>42</v>
@@ -1648,7 +1872,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="23"/>
     </row>
-    <row r="35" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1660,21 +1884,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -1688,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1702,7 +1926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -1716,26 +1940,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="23"/>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -1752,7 +1976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B53" s="27" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>14</v>
       </c>
@@ -1775,21 +1999,21 @@
       </c>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="23"/>
     </row>
-    <row r="58" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -1806,7 +2030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
         <v>68</v>
@@ -1814,10 +2038,9 @@
       <c r="D59" s="23"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1825,32 +2048,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:H107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:AMJ107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="720" topLeftCell="A13" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="720" topLeftCell="A91" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="48.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="39.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="40.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="93.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="2" width="11.57"/>
+    <col min="1" max="1" width="6" style="30" customWidth="1"/>
+    <col min="2" max="2" width="37" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="93.109375" style="2" customWidth="1"/>
+    <col min="9" max="1024" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>69</v>
       </c>
@@ -1870,7 +2089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -1878,7 +2097,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
         <v>75</v>
       </c>
@@ -1888,7 +2107,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>76</v>
       </c>
@@ -1908,7 +2127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34" t="s">
@@ -1920,7 +2139,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
@@ -1932,7 +2151,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -1940,7 +2159,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>86</v>
       </c>
@@ -1960,7 +2179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
@@ -1972,7 +2191,7 @@
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
@@ -1984,14 +2203,14 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
@@ -2001,8 +2220,8 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14"/>
       <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
@@ -2025,8 +2244,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -2036,8 +2255,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16"/>
       <c r="B16" s="11" t="s">
         <v>76</v>
       </c>
@@ -2060,8 +2279,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34" t="s">
@@ -2074,8 +2293,8 @@
       <c r="G17" s="34"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18"/>
       <c r="B18" s="34"/>
       <c r="C18" s="11" t="s">
         <v>102</v>
@@ -2096,8 +2315,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
@@ -2110,8 +2329,8 @@
       <c r="G19" s="23"/>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34" t="s">
         <v>107</v>
@@ -2132,8 +2351,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23" t="s">
@@ -2146,8 +2365,8 @@
       <c r="G21" s="23"/>
       <c r="H21" s="30"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -2156,8 +2375,8 @@
       <c r="G22" s="32"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23"/>
       <c r="B23" s="6" t="s">
         <v>111</v>
       </c>
@@ -2180,8 +2399,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -2190,8 +2409,8 @@
       <c r="G24" s="32"/>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25"/>
       <c r="B25" s="11" t="s">
         <v>117</v>
       </c>
@@ -2214,8 +2433,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="51" t="s">
@@ -2228,8 +2447,8 @@
       <c r="G26" s="52"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="51" t="s">
@@ -2242,8 +2461,8 @@
       <c r="G27" s="52"/>
       <c r="H27" s="30"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
+    <row r="28" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28"/>
       <c r="B28" s="17"/>
       <c r="C28" s="13"/>
       <c r="D28" s="54" t="s">
@@ -2256,8 +2475,8 @@
       <c r="G28" s="54"/>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29"/>
       <c r="B29" s="17"/>
       <c r="C29" s="11" t="s">
         <v>126</v>
@@ -2278,7 +2497,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="58" t="s">
@@ -2290,7 +2509,7 @@
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="58" t="s">
@@ -2302,7 +2521,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="58" t="s">
@@ -2314,7 +2533,7 @@
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="61" t="s">
@@ -2326,7 +2545,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -2334,7 +2553,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -2342,7 +2561,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -2350,7 +2569,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -2358,7 +2577,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -2366,7 +2585,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -2374,7 +2593,7 @@
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -2382,7 +2601,7 @@
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -2390,7 +2609,7 @@
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -2398,7 +2617,7 @@
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2406,7 +2625,7 @@
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -2414,7 +2633,7 @@
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2422,7 +2641,7 @@
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -2430,7 +2649,7 @@
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -2438,7 +2657,7 @@
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
@@ -2446,7 +2665,7 @@
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
@@ -2454,7 +2673,7 @@
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
@@ -2462,7 +2681,7 @@
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
@@ -2470,7 +2689,7 @@
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
@@ -2478,7 +2697,7 @@
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
@@ -2486,7 +2705,7 @@
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -2494,7 +2713,7 @@
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="33" t="s">
         <v>135</v>
       </c>
@@ -2504,7 +2723,7 @@
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>86</v>
       </c>
@@ -2524,7 +2743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34" t="s">
@@ -2536,7 +2755,7 @@
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23" t="s">
@@ -2548,7 +2767,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>90</v>
       </c>
@@ -2568,7 +2787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>76</v>
       </c>
@@ -2588,7 +2807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34" t="s">
@@ -2600,7 +2819,7 @@
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="34"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23" t="s">
@@ -2612,7 +2831,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="34"/>
       <c r="C65" s="34" t="s">
         <v>96</v>
@@ -2630,7 +2849,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34" t="s">
@@ -2642,7 +2861,7 @@
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="34"/>
       <c r="C67" s="11" t="s">
         <v>102</v>
@@ -2660,7 +2879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="34"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23" t="s">
@@ -2672,7 +2891,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="34"/>
       <c r="C69" s="34" t="s">
         <v>107</v>
@@ -2690,7 +2909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
       <c r="D70" s="23" t="s">
@@ -2702,12 +2921,12 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="64" t="s">
         <v>137</v>
       </c>
@@ -2727,7 +2946,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="66"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -2737,7 +2956,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>143</v>
       </c>
@@ -2755,7 +2974,7 @@
       </c>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17" t="s">
@@ -2771,7 +2990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -2783,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +3022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="34"/>
       <c r="C82" s="23"/>
       <c r="D82" s="23" t="s">
@@ -2815,7 +3034,7 @@
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="34"/>
       <c r="C83" s="34" t="s">
         <v>154</v>
@@ -2833,7 +3052,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="34"/>
       <c r="C84" s="11" t="s">
         <v>157</v>
@@ -2851,7 +3070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34" t="s">
@@ -2863,7 +3082,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34" t="s">
@@ -2875,7 +3094,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34" t="s">
@@ -2887,7 +3106,7 @@
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
       <c r="D88" s="23" t="s">
@@ -2899,7 +3118,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>165</v>
       </c>
@@ -2917,7 +3136,7 @@
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34" t="s">
@@ -2933,7 +3152,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
       <c r="D92" s="34" t="s">
@@ -2949,7 +3168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34" t="s">
@@ -2965,7 +3184,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23" t="s">
@@ -2981,7 +3200,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
         <v>186</v>
       </c>
@@ -2995,7 +3214,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
       <c r="D97" s="13" t="s">
@@ -3007,12 +3226,12 @@
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
         <v>189</v>
       </c>
@@ -3032,7 +3251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34" t="s">
@@ -3044,7 +3263,7 @@
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34" t="s">
@@ -3056,7 +3275,7 @@
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23" t="s">
@@ -3069,10 +3288,9 @@
       <c r="G107" s="23"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3080,71 +3298,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.94"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>204</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="73" t="n">
+      <c r="C2" s="73">
         <v>0</v>
       </c>
-      <c r="D2" s="73" t="n">
+      <c r="D2" s="73">
         <v>1</v>
       </c>
-      <c r="E2" s="73" t="n">
+      <c r="E2" s="73">
         <v>0</v>
       </c>
-      <c r="F2" s="73" t="n">
+      <c r="F2" s="73">
         <v>0</v>
       </c>
       <c r="G2" s="73"/>
@@ -3152,23 +3367,23 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="74" t="n">
+      <c r="C3" s="74">
         <v>1</v>
       </c>
-      <c r="D3" s="74" t="n">
+      <c r="D3" s="74">
         <v>1</v>
       </c>
-      <c r="E3" s="74" t="n">
+      <c r="E3" s="74">
         <v>1</v>
       </c>
-      <c r="F3" s="74" t="n">
+      <c r="F3" s="74">
         <v>1</v>
       </c>
       <c r="G3" s="74" t="s">
@@ -3178,23 +3393,23 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>211</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="74">
         <v>0</v>
       </c>
-      <c r="D4" s="74" t="n">
+      <c r="D4" s="74">
         <v>1</v>
       </c>
-      <c r="E4" s="74" t="n">
+      <c r="E4" s="74">
         <v>0</v>
       </c>
-      <c r="F4" s="74" t="n">
+      <c r="F4" s="74">
         <v>0</v>
       </c>
       <c r="G4" s="74"/>
@@ -3202,23 +3417,23 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>214</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="74">
         <v>1</v>
       </c>
-      <c r="D5" s="74" t="n">
+      <c r="D5" s="74">
         <v>1</v>
       </c>
-      <c r="E5" s="74" t="n">
+      <c r="E5" s="74">
         <v>0</v>
       </c>
-      <c r="F5" s="74" t="n">
+      <c r="F5" s="74">
         <v>0</v>
       </c>
       <c r="G5" s="74" t="s">
@@ -3228,23 +3443,23 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>218</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="74">
         <v>1</v>
       </c>
-      <c r="D6" s="74" t="n">
+      <c r="D6" s="74">
         <v>0</v>
       </c>
-      <c r="E6" s="74" t="n">
+      <c r="E6" s="74">
         <v>0</v>
       </c>
-      <c r="F6" s="74" t="n">
+      <c r="F6" s="74">
         <v>0</v>
       </c>
       <c r="G6" s="74" t="s">
@@ -3252,23 +3467,23 @@
       </c>
       <c r="H6" s="74"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>221</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="74">
         <v>1</v>
       </c>
-      <c r="D7" s="74" t="n">
+      <c r="D7" s="74">
         <v>1</v>
       </c>
-      <c r="E7" s="74" t="n">
+      <c r="E7" s="74">
         <v>0</v>
       </c>
-      <c r="F7" s="74" t="n">
+      <c r="F7" s="74">
         <v>0</v>
       </c>
       <c r="G7" s="74" t="s">
@@ -3278,23 +3493,23 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>224</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="74" t="n">
+      <c r="C8" s="74">
         <v>0</v>
       </c>
-      <c r="D8" s="74" t="n">
+      <c r="D8" s="74">
         <v>1</v>
       </c>
-      <c r="E8" s="74" t="n">
+      <c r="E8" s="74">
         <v>0</v>
       </c>
-      <c r="F8" s="74" t="n">
+      <c r="F8" s="74">
         <v>0</v>
       </c>
       <c r="G8" s="74"/>
@@ -3302,23 +3517,23 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>227</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="74" t="n">
+      <c r="C9" s="74">
         <v>1</v>
       </c>
-      <c r="D9" s="74" t="n">
+      <c r="D9" s="74">
         <v>0</v>
       </c>
-      <c r="E9" s="74" t="n">
+      <c r="E9" s="74">
         <v>0</v>
       </c>
-      <c r="F9" s="74" t="n">
+      <c r="F9" s="74">
         <v>0</v>
       </c>
       <c r="G9" s="74" t="s">
@@ -3328,23 +3543,23 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>230</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="74" t="n">
+      <c r="C10" s="74">
         <v>0</v>
       </c>
-      <c r="D10" s="74" t="n">
+      <c r="D10" s="74">
         <v>1</v>
       </c>
-      <c r="E10" s="74" t="n">
+      <c r="E10" s="74">
         <v>0</v>
       </c>
-      <c r="F10" s="74" t="n">
+      <c r="F10" s="74">
         <v>0</v>
       </c>
       <c r="G10" s="74"/>
@@ -3352,23 +3567,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>233</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="74">
         <v>0</v>
       </c>
-      <c r="D11" s="74" t="n">
+      <c r="D11" s="74">
         <v>1</v>
       </c>
-      <c r="E11" s="74" t="n">
+      <c r="E11" s="74">
         <v>0</v>
       </c>
-      <c r="F11" s="74" t="n">
+      <c r="F11" s="74">
         <v>0</v>
       </c>
       <c r="G11" s="74"/>
@@ -3376,23 +3591,23 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>236</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="75" t="n">
+      <c r="C12" s="75">
         <v>0</v>
       </c>
-      <c r="D12" s="75" t="n">
+      <c r="D12" s="75">
         <v>1</v>
       </c>
-      <c r="E12" s="75" t="n">
+      <c r="E12" s="75">
         <v>0</v>
       </c>
-      <c r="F12" s="75" t="n">
+      <c r="F12" s="75">
         <v>0</v>
       </c>
       <c r="G12" s="75"/>
@@ -3401,10 +3616,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
